--- a/Project-S/Assets/Resources/Excel/ExcelFile/itemTable.xlsx
+++ b/Project-S/Assets/Resources/Excel/ExcelFile/itemTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Excel\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Project-S\Project-S\Assets\Resources\Excel\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034C4BC-52A5-4E35-9B77-2127DC13051F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B15E74-EFC3-4060-B301-BAE6B5239034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31125" yWindow="2580" windowWidth="19545" windowHeight="11835" xr2:uid="{146B6AF9-5316-47AC-88BA-50AA66486CA4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>index</t>
   </si>
@@ -65,11 +65,23 @@
     <t>saleGold</t>
   </si>
   <si>
-    <t>resourceName</t>
+    <t>iconResourceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tomato</t>
+    <t>modelResourceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato_icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invenMaxCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,21 +449,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A90F246-DB51-4C67-8552-529D88DABCB3}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,43 +476,46 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1100000</v>
       </c>
       <c r="B2">
         <v>101001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>111001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
       <c r="G2">
         <v>-1</v>
       </c>
@@ -506,28 +523,31 @@
         <v>-1</v>
       </c>
       <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>500</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1100001</v>
       </c>
       <c r="B3">
         <v>101002</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>111002</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
       <c r="G3">
         <v>-1</v>
       </c>
@@ -535,31 +555,37 @@
         <v>-1</v>
       </c>
       <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>500</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1020000</v>
       </c>
       <c r="B4">
         <v>100001</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>100002</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
       <c r="G4">
         <v>-1</v>
       </c>
@@ -567,10 +593,16 @@
         <v>-1</v>
       </c>
       <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>500</v>
+      </c>
+      <c r="L4">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
